--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_32.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_32.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999926568958498</v>
+        <v>0.9358779317688065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828438032115579</v>
+        <v>0.7469395056639442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8190812662190515</v>
+        <v>0.6733476722774994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999565000376829</v>
+        <v>0.9355781379590704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003056586706284944</v>
+        <v>0.2669098208684716</v>
       </c>
       <c r="G2" t="n">
-        <v>1.147235669213347</v>
+        <v>1.692216690861638</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6471358204635349</v>
+        <v>1.168416435873177</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002358692972842203</v>
+        <v>0.3057395091845168</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04738305047714558</v>
+        <v>1.417177096937129</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0174830967116382</v>
+        <v>0.5166331588936889</v>
       </c>
       <c r="L2" t="n">
-        <v>1.00469958665613</v>
+        <v>0.9126848432596514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01775843800816154</v>
+        <v>0.5247696147025757</v>
       </c>
       <c r="N2" t="n">
-        <v>146.1860830681156</v>
+        <v>36.6416888543768</v>
       </c>
       <c r="O2" t="n">
-        <v>287.521255611332</v>
+        <v>73.60627244260263</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999280069112854</v>
+        <v>0.9359091398501743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8283775678533335</v>
+        <v>0.7468703844946567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8191356815770794</v>
+        <v>0.6729851100635029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999957970896613</v>
+        <v>0.9353983686405752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002996731537621648</v>
+        <v>0.2667799163966212</v>
       </c>
       <c r="G3" t="n">
-        <v>1.147639994013395</v>
+        <v>1.692678904438937</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6469411798830528</v>
+        <v>1.169713299890077</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002278938774500284</v>
+        <v>0.3065926758186672</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04573804494837266</v>
+        <v>1.415255588331628</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01731107026622458</v>
+        <v>0.5165074214342145</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004607557677737</v>
+        <v>0.9127273393704501</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01758370231819601</v>
+        <v>0.5246418970038059</v>
       </c>
       <c r="N3" t="n">
-        <v>146.2256363293808</v>
+        <v>36.64266248729754</v>
       </c>
       <c r="O3" t="n">
-        <v>287.5608088725972</v>
+        <v>73.60724607552336</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999282622557092</v>
+        <v>0.9359389421564962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8283255627514707</v>
+        <v>0.7466553837265474</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8191234539302429</v>
+        <v>0.6726259288179604</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999566715448841</v>
+        <v>0.9352183136468212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002986102757812079</v>
+        <v>0.2666558635009293</v>
       </c>
       <c r="G4" t="n">
-        <v>1.147987752369013</v>
+        <v>1.694116615565271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6469849174667874</v>
+        <v>1.170998070378857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002349393359491336</v>
+        <v>0.3074471982381157</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04624805161433292</v>
+        <v>1.413356992470669</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01728034362451187</v>
+        <v>0.5163873192681335</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004591215634612</v>
+        <v>0.9127679212343778</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0175524917625917</v>
+        <v>0.5245199033486673</v>
       </c>
       <c r="N4" t="n">
-        <v>146.2327425205047</v>
+        <v>36.64359270534892</v>
       </c>
       <c r="O4" t="n">
-        <v>287.5679150637211</v>
+        <v>73.60817629357474</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999285207753477</v>
+        <v>0.9359673796580465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8282892450331659</v>
+        <v>0.7465571562254829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.819256094463257</v>
+        <v>0.6722698333082224</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999482894792794</v>
+        <v>0.9350380509774475</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002975341808844015</v>
+        <v>0.2665374916415346</v>
       </c>
       <c r="G5" t="n">
-        <v>1.148230609118545</v>
+        <v>1.694773463317185</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6465104699711357</v>
+        <v>1.172271803369586</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002803893046077247</v>
+        <v>0.3083027062646234</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04605530136161219</v>
+        <v>1.411477444777972</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01724917913653869</v>
+        <v>0.5162726911638215</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00457467037775</v>
+        <v>0.9128066446407442</v>
       </c>
       <c r="M5" t="n">
-        <v>0.017520836465086</v>
+        <v>0.5244034699662984</v>
       </c>
       <c r="N5" t="n">
-        <v>146.2399628916986</v>
+        <v>36.64448072737844</v>
       </c>
       <c r="O5" t="n">
-        <v>287.575135434915</v>
+        <v>73.60906431560426</v>
       </c>
     </row>
     <row r="6">
@@ -708,242 +708,242 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999309404476149</v>
+        <v>0.936249485673716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.828233369678808</v>
+        <v>0.7446736071868527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8195547681305856</v>
+        <v>0.6673108600815834</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999433458752857</v>
+        <v>0.9323254610170648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002874622304742084</v>
+        <v>0.2653632178199731</v>
       </c>
       <c r="G6" t="n">
-        <v>1.148604247870419</v>
+        <v>1.707368764411451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6454421315811958</v>
+        <v>1.190009763063485</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000307194946220683</v>
+        <v>0.3211763782888708</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04227621273469038</v>
+        <v>1.385678859214885</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01695471115867824</v>
+        <v>0.5151341745797623</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004419811352648</v>
+        <v>0.9131907890025069</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01722173091093424</v>
+        <v>0.5232470228841394</v>
       </c>
       <c r="N6" t="n">
-        <v>146.3088381572412</v>
+        <v>36.65331151634674</v>
       </c>
       <c r="O6" t="n">
-        <v>287.6440107004576</v>
+        <v>73.61789510457257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_7</t>
+          <t>model_1_32_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999273474109959</v>
+        <v>0.9363050847390471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8280986420636027</v>
+        <v>0.7445866538403203</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8186661621552136</v>
+        <v>0.6652396492850602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998679682202323</v>
+        <v>0.9310696353093235</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003024183413236</v>
+        <v>0.265131785226214</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14950517205366</v>
+        <v>1.707950221840097</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6486206236307663</v>
+        <v>1.197418363986946</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007159142549581111</v>
+        <v>0.327136397501948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0431939768799458</v>
+        <v>1.375027064021336</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01739017945058647</v>
+        <v>0.5149094922665671</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004649765696264</v>
+        <v>0.9132664983680641</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01766405739313143</v>
+        <v>0.5230188020491112</v>
       </c>
       <c r="N7" t="n">
-        <v>146.2073985259461</v>
+        <v>36.65505654773902</v>
       </c>
       <c r="O7" t="n">
-        <v>287.5425710691625</v>
+        <v>73.61964013596484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_5</t>
+          <t>model_1_32_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999329693705513</v>
+        <v>0.9363098436462671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8280605396979979</v>
+        <v>0.7444695104823716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8187646125803506</v>
+        <v>0.6649560746371767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999397356378943</v>
+        <v>0.930891471374971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002790167845856179</v>
+        <v>0.2651119761478625</v>
       </c>
       <c r="G8" t="n">
-        <v>1.149759962747905</v>
+        <v>1.708733560014095</v>
       </c>
       <c r="H8" t="n">
-        <v>0.648268472168535</v>
+        <v>1.198432694059823</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003267706909153453</v>
+        <v>0.327981945148626</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04369380385437605</v>
+        <v>1.3735693710329</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01670379551436194</v>
+        <v>0.5148902564118518</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004289960284716</v>
+        <v>0.913272978582151</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01696686359604357</v>
+        <v>0.522999263248913</v>
       </c>
       <c r="N8" t="n">
-        <v>146.3684772362947</v>
+        <v>36.65520598148859</v>
       </c>
       <c r="O8" t="n">
-        <v>287.7036497795111</v>
+        <v>73.6197895697144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_8</t>
+          <t>model_1_32_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999245467433934</v>
+        <v>0.9363138316655637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8280569204338939</v>
+        <v>0.7443664615000694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8189423245104546</v>
+        <v>0.66467566349966</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998356116618878</v>
+        <v>0.9307135099947419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003140761949881146</v>
+        <v>0.2650953759110732</v>
       </c>
       <c r="G9" t="n">
-        <v>1.149784164783633</v>
+        <v>1.709422649033247</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6476328068988828</v>
+        <v>1.199435708439548</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008913608133624042</v>
+        <v>0.3288265314943369</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04261425191284257</v>
+        <v>1.372129985555301</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01772219498222821</v>
+        <v>0.5148741359896351</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004829008422824</v>
+        <v>0.9132784090765123</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01800130183750276</v>
+        <v>0.5229828889461609</v>
       </c>
       <c r="N9" t="n">
-        <v>146.1317498845904</v>
+        <v>36.65533121729854</v>
       </c>
       <c r="O9" t="n">
-        <v>287.4669224278068</v>
+        <v>73.61991480552436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_6</t>
+          <t>model_1_32_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999352635423097</v>
+        <v>0.9363110941883979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8280351823136904</v>
+        <v>0.7429779149335843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8192020739035822</v>
+        <v>0.6615455554384756</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999912605983952</v>
+        <v>0.9286105987999024</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002694672333944472</v>
+        <v>0.2651067707328581</v>
       </c>
       <c r="G10" t="n">
-        <v>1.149929527693529</v>
+        <v>1.718707866317002</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6467036983808006</v>
+        <v>1.210631923480311</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004738754714726048</v>
+        <v>0.338806731013568</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03825730535960684</v>
+        <v>1.356017230317798</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01641545714850632</v>
+        <v>0.5148852015088976</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004143133292182</v>
+        <v>0.9132746814480311</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01667398418915835</v>
+        <v>0.5229941287362903</v>
       </c>
       <c r="N10" t="n">
-        <v>146.438127515918</v>
+        <v>36.65524525143168</v>
       </c>
       <c r="O10" t="n">
-        <v>287.7733000591344</v>
+        <v>73.6198288396575</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999127610650669</v>
+        <v>0.9363027008726768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8277275206685775</v>
+        <v>0.7427833846232013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8195609472745133</v>
+        <v>0.6610651791955866</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997758885637352</v>
+        <v>0.9282666897860867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000363134395662519</v>
+        <v>0.2651417081336221</v>
       </c>
       <c r="G11" t="n">
-        <v>1.151986862531051</v>
+        <v>1.720008691398263</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6454200291416538</v>
+        <v>1.21235020144731</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001215196615568018</v>
+        <v>0.3404388877031917</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04643694571949006</v>
+        <v>1.353530082895282</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01905608552831664</v>
+        <v>0.5149191277604883</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00558329183572</v>
+        <v>0.9132632522521555</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01935619982629073</v>
+        <v>0.5230285892924297</v>
       </c>
       <c r="N11" t="n">
-        <v>145.8414751124699</v>
+        <v>36.65498169649691</v>
       </c>
       <c r="O11" t="n">
-        <v>287.1766476556863</v>
+        <v>73.61956528472274</v>
       </c>
     </row>
   </sheetData>
